--- a/Miami Builder List.xlsx
+++ b/Miami Builder List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="1340" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="20420" yWindow="1120" windowWidth="16560" windowHeight="18240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Miami" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="265">
   <si>
     <t>Area</t>
   </si>
@@ -45,18 +45,12 @@
     <t>Floors/ Lots</t>
   </si>
   <si>
-    <t>Commission</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
     <t>Rental Price</t>
   </si>
   <si>
-    <t>Rental Commission</t>
-  </si>
-  <si>
     <t>HOA Phone</t>
   </si>
   <si>
@@ -72,18 +66,6 @@
     <t>1100 S. Miami Ave, Miami Fl. 33131</t>
   </si>
   <si>
-    <t>Single Family</t>
-  </si>
-  <si>
-    <t>$1,000,000 - $2,000,000</t>
-  </si>
-  <si>
-    <t>under construction</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>407-919-6193</t>
   </si>
   <si>
@@ -780,10 +762,58 @@
     <t>Sale</t>
   </si>
   <si>
-    <t>$419,00</t>
-  </si>
-  <si>
     <t>(305) 503-6183</t>
+  </si>
+  <si>
+    <t>Paramount Bay</t>
+  </si>
+  <si>
+    <t>2020 N Bayshore Drive, Miami, FL 33137</t>
+  </si>
+  <si>
+    <t>699,00 - 4,899,000</t>
+  </si>
+  <si>
+    <t>Condo</t>
+  </si>
+  <si>
+    <t>Built</t>
+  </si>
+  <si>
+    <t>245,000 - 1,750,000</t>
+  </si>
+  <si>
+    <t>Marina Blue</t>
+  </si>
+  <si>
+    <t>888 Biscayne Blvd, Miami, FL 33132</t>
+  </si>
+  <si>
+    <t>319,000 - 5,900,000</t>
+  </si>
+  <si>
+    <t>10 Museum Park</t>
+  </si>
+  <si>
+    <t>1040 Biscayne Blvd, Miami, FL 33132</t>
+  </si>
+  <si>
+    <t>357,00 - 4,500,000</t>
+  </si>
+  <si>
+    <t>1800 Club</t>
+  </si>
+  <si>
+    <t>1800 N Bayshore Dr, Miami, FL 33132</t>
+  </si>
+  <si>
+    <t>Quantum on the Bay</t>
+  </si>
+  <si>
+    <t>1900 N Bayshore Dr, Miami, FL 33132</t>
+  </si>
+  <si>
+    <t>239,900 - 1,150,000</t>
   </si>
 </sst>
 </file>
@@ -793,7 +823,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -823,6 +853,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -906,12 +944,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -926,17 +976,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -952,12 +996,56 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="15">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1056,88 +1144,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1500,59 +1506,27 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:N101" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:N101"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Area" dataDxfId="13"/>
-    <tableColumn id="2" name="Community" dataDxfId="12"/>
-    <tableColumn id="3" name="Address" dataDxfId="11"/>
-    <tableColumn id="4" name="Type" dataDxfId="10"/>
-    <tableColumn id="5" name="Units/ Homes" dataDxfId="9"/>
-    <tableColumn id="6" name="Price Range" dataDxfId="8"/>
-    <tableColumn id="7" name="Status" dataDxfId="7"/>
-    <tableColumn id="8" name="Floors/ Lots" dataDxfId="6"/>
-    <tableColumn id="9" name="Commission" dataDxfId="5"/>
-    <tableColumn id="10" name="Contact" dataDxfId="4"/>
-    <tableColumn id="11" name="Rental Price" dataDxfId="3"/>
-    <tableColumn id="12" name="Rental Commission" dataDxfId="2"/>
-    <tableColumn id="13" name="HOA Phone" dataDxfId="1"/>
-    <tableColumn id="14" name="Site" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:L101" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:L101"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Area" dataDxfId="14"/>
+    <tableColumn id="2" name="Community" dataDxfId="13"/>
+    <tableColumn id="3" name="Address" dataDxfId="12"/>
+    <tableColumn id="4" name="Type" dataDxfId="11"/>
+    <tableColumn id="5" name="Units/ Homes" dataDxfId="10"/>
+    <tableColumn id="6" name="Price Range" dataDxfId="9"/>
+    <tableColumn id="7" name="Status" dataDxfId="8"/>
+    <tableColumn id="8" name="Floors/ Lots" dataDxfId="7"/>
+    <tableColumn id="10" name="Contact" dataDxfId="6"/>
+    <tableColumn id="11" name="Rental Price" dataDxfId="5"/>
+    <tableColumn id="13" name="HOA Phone" dataDxfId="4"/>
+    <tableColumn id="14" name="Site" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1880,33 +1854,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="14.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="66" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="66" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,1463 +1905,1582 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="7">
         <v>382</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="F2" s="8"/>
       <c r="H2" s="7">
         <v>42</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="9">
+        <v>1234</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="13">
+        <v>60</v>
+      </c>
+      <c r="H3" s="13">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="9">
-        <v>1234</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="15">
+        <v>58</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="15">
+        <v>54</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15">
+        <v>633</v>
+      </c>
+      <c r="H5" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13">
+        <v>123</v>
+      </c>
+      <c r="H6" s="13">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13">
+        <v>96</v>
+      </c>
+      <c r="H7" s="13">
+        <v>21</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="13">
+        <v>570</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="13">
+        <v>788</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13">
+        <v>77</v>
+      </c>
+      <c r="H10" s="13">
+        <v>17</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="15">
+        <v>345</v>
+      </c>
+      <c r="F11" s="22">
+        <v>315000</v>
+      </c>
+      <c r="H11" s="15">
+        <v>36</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="13">
+        <v>37</v>
+      </c>
+      <c r="H12" s="13">
+        <v>12</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13">
+        <v>448</v>
+      </c>
+      <c r="H13" s="13">
+        <v>29</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13">
+        <v>199</v>
+      </c>
+      <c r="H14" s="13">
+        <v>14</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="13">
+        <v>166</v>
+      </c>
+      <c r="H15" s="13">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="13">
+        <v>66</v>
+      </c>
+      <c r="H16" s="13">
+        <v>28</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="13">
+        <v>54</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="13">
+        <v>160</v>
+      </c>
+      <c r="H18" s="13">
+        <v>17</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="13">
+        <v>316</v>
+      </c>
+      <c r="H19" s="13">
+        <v>22</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="13">
+        <v>395</v>
+      </c>
+      <c r="H20" s="13">
+        <v>17</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="13">
+        <v>92</v>
+      </c>
+      <c r="H21" s="13">
+        <v>5</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="13">
+        <v>390</v>
+      </c>
+      <c r="H22" s="13">
+        <v>43</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="13">
+        <v>319</v>
+      </c>
+      <c r="H23" s="13">
+        <v>46</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="13">
+        <v>98</v>
+      </c>
+      <c r="H24" s="13">
+        <v>12</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1019</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="13">
+        <v>77</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="15">
+        <v>26</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="13">
+        <v>359</v>
+      </c>
+      <c r="H28" s="13">
+        <v>21</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="15">
+        <v>44</v>
+      </c>
+      <c r="H29" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="15">
+        <v>107</v>
+      </c>
+      <c r="H30" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="15">
+        <v>51</v>
+      </c>
+      <c r="H31" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="15">
+        <v>14</v>
+      </c>
+      <c r="H32" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="13">
+        <v>150</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="13">
+        <v>284</v>
+      </c>
+      <c r="H34" s="13">
+        <v>40</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="13">
+        <v>84</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="H36" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="15">
+        <v>436</v>
+      </c>
+      <c r="H37" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="13">
+        <v>643</v>
+      </c>
+      <c r="H38" s="13">
+        <v>43</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="13">
+        <v>28</v>
+      </c>
+      <c r="H39" s="13">
+        <v>15</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="13">
+        <v>195</v>
+      </c>
+      <c r="H40" s="13">
+        <v>21</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="13">
+        <v>319</v>
+      </c>
+      <c r="H41" s="13">
+        <v>34</v>
+      </c>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="15">
+        <v>272</v>
+      </c>
+      <c r="H42" s="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="13">
+        <v>142</v>
+      </c>
+      <c r="H43" s="13">
+        <v>27</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1116</v>
+      </c>
+      <c r="H44" s="13">
+        <v>34</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="13">
+        <v>296</v>
+      </c>
+      <c r="H45" s="13">
+        <v>29</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="15">
+        <v>744</v>
+      </c>
+      <c r="H46" s="15">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="13">
+        <v>491</v>
+      </c>
+      <c r="H47" s="13">
+        <v>70</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="15">
+        <v>5</v>
+      </c>
+      <c r="H48" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1800</v>
+      </c>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="13">
+        <v>160</v>
+      </c>
+      <c r="H50" s="13">
+        <v>30</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="15">
+        <v>459</v>
+      </c>
+      <c r="H51" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="15">
+        <v>300</v>
+      </c>
+      <c r="H52" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="15">
+        <v>500</v>
+      </c>
+      <c r="H53" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="13">
+        <v>340</v>
+      </c>
+      <c r="H54" s="13">
+        <v>48</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="13">
+        <v>427</v>
+      </c>
+      <c r="H55" s="13">
+        <v>44</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="13">
+        <v>48</v>
+      </c>
+      <c r="H56" s="13">
+        <v>2</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="13">
+        <v>370</v>
+      </c>
+      <c r="H57" s="13">
+        <v>36</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="13">
+        <v>199</v>
+      </c>
+      <c r="H58" s="13">
+        <v>27</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="13">
+        <v>602</v>
+      </c>
+      <c r="H59" s="13">
+        <v>56</v>
+      </c>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="13">
+        <v>602</v>
+      </c>
+      <c r="H60" s="13">
+        <v>56</v>
+      </c>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="13">
+        <v>199</v>
+      </c>
+      <c r="H61" s="13">
+        <v>20</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="13">
+        <v>443</v>
+      </c>
+      <c r="H62" s="13">
+        <v>36</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="15">
+        <v>289</v>
+      </c>
+      <c r="H63" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="15">
+        <v>289</v>
+      </c>
+      <c r="H64" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="13">
+        <v>440</v>
+      </c>
+      <c r="H65" s="13">
+        <v>43</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="13">
+        <v>560</v>
+      </c>
+      <c r="H66" s="15">
+        <v>56</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="13">
+        <v>152</v>
+      </c>
+      <c r="H67" s="15">
+        <v>30</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="13">
+        <v>174</v>
+      </c>
+      <c r="H68" s="13">
+        <v>51</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="13">
+        <v>360</v>
+      </c>
+      <c r="H69" s="13">
+        <v>35</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="13">
+        <v>138</v>
+      </c>
+      <c r="H70" s="15">
+        <v>22</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" s="15">
+        <v>130</v>
+      </c>
+      <c r="H71" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="13">
+        <v>323</v>
+      </c>
+      <c r="H72" s="13">
+        <v>44</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="15">
+        <v>252</v>
+      </c>
+      <c r="H73" s="13">
+        <v>40</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" s="15">
+        <v>238</v>
+      </c>
+      <c r="H74" s="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="15">
+        <v>8</v>
+      </c>
+      <c r="H75" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" s="15">
+        <v>269</v>
+      </c>
+      <c r="H76" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="15">
+        <v>120</v>
+      </c>
+      <c r="H77" s="13">
+        <v>30</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="15">
+        <v>323</v>
+      </c>
+      <c r="H78" s="13">
+        <v>36</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="15">
+        <v>489</v>
+      </c>
+      <c r="H79" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="20">
+        <v>358</v>
+      </c>
+      <c r="G83" s="17">
+        <v>2016</v>
+      </c>
+      <c r="H83" s="20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="20">
+        <v>800</v>
+      </c>
+      <c r="G84" s="17">
+        <v>2015</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="20">
+        <v>374</v>
+      </c>
+      <c r="G85" s="17">
+        <v>2014</v>
+      </c>
+      <c r="H85" s="20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="20">
+        <v>390</v>
+      </c>
+      <c r="G86" s="17">
+        <v>2014</v>
+      </c>
+      <c r="H86" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" s="20">
+        <v>192</v>
+      </c>
+      <c r="H87" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="11">
+        <v>58</v>
+      </c>
+      <c r="F90" s="23">
+        <v>419000</v>
+      </c>
+      <c r="G90" s="11">
+        <v>2008</v>
+      </c>
+      <c r="H90" s="11">
+        <v>63</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="11">
+        <v>29</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G91" s="11">
+        <v>2011</v>
+      </c>
+      <c r="H91" s="11">
+        <v>47</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" s="11">
+        <v>37</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G92" s="11">
+        <v>2008</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93" s="11">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="14">
-        <v>60</v>
-      </c>
-      <c r="H3" s="14">
-        <v>11</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="17">
-        <v>523</v>
-      </c>
-      <c r="H4" s="17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="17">
-        <v>633</v>
-      </c>
-      <c r="H5" s="17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="14">
-        <v>123</v>
-      </c>
-      <c r="H6" s="14">
-        <v>33</v>
-      </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="14">
-        <v>96</v>
-      </c>
-      <c r="H7" s="14">
-        <v>21</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="14">
-        <v>570</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14">
-        <v>788</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="F93" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G93" s="11">
+        <v>2007</v>
+      </c>
+      <c r="H93" s="11">
+        <v>50</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" s="11">
+        <v>19</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="11">
         <v>43</v>
       </c>
-      <c r="E10" s="14">
-        <v>77</v>
-      </c>
-      <c r="H10" s="14">
-        <v>17</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="17">
-        <v>345</v>
-      </c>
-      <c r="H11" s="17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="14">
-        <v>37</v>
-      </c>
-      <c r="H12" s="14">
-        <v>12</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="14">
-        <v>448</v>
-      </c>
-      <c r="H13" s="14">
-        <v>29</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="14">
-        <v>199</v>
-      </c>
-      <c r="H14" s="14">
-        <v>14</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="14">
-        <v>166</v>
-      </c>
-      <c r="H15" s="14">
-        <v>15</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="14">
-        <v>66</v>
-      </c>
-      <c r="H16" s="14">
-        <v>28</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="14">
-        <v>54</v>
-      </c>
-      <c r="H17" s="14">
-        <v>2</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="14">
-        <v>160</v>
-      </c>
-      <c r="H18" s="14">
-        <v>17</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="14">
-        <v>316</v>
-      </c>
-      <c r="H19" s="14">
-        <v>22</v>
-      </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="14">
-        <v>395</v>
-      </c>
-      <c r="H20" s="14">
-        <v>17</v>
-      </c>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="14">
-        <v>92</v>
-      </c>
-      <c r="H21" s="14">
-        <v>5</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="14">
-        <v>390</v>
-      </c>
-      <c r="H22" s="14">
-        <v>43</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="14">
-        <v>319</v>
-      </c>
-      <c r="H23" s="14">
-        <v>46</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="14">
-        <v>98</v>
-      </c>
-      <c r="H24" s="14">
-        <v>12</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1019</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="J25" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="14">
-        <v>77</v>
-      </c>
-      <c r="H26" s="14">
-        <v>10</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="17">
-        <v>26</v>
-      </c>
-      <c r="H27" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="14">
-        <v>359</v>
-      </c>
-      <c r="H28" s="14">
-        <v>21</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="17">
-        <v>44</v>
-      </c>
-      <c r="H29" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="17">
-        <v>107</v>
-      </c>
-      <c r="H30" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="17">
-        <v>51</v>
-      </c>
-      <c r="H31" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="17">
-        <v>14</v>
-      </c>
-      <c r="H32" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="14">
-        <v>150</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="J33" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="14">
-        <v>284</v>
-      </c>
-      <c r="H34" s="14">
-        <v>40</v>
-      </c>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="14">
-        <v>84</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="J35" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="H36" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="17">
-        <v>436</v>
-      </c>
-      <c r="H37" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="14">
-        <v>643</v>
-      </c>
-      <c r="H38" s="14">
-        <v>43</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="14">
-        <v>28</v>
-      </c>
-      <c r="H39" s="14">
-        <v>15</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="14">
-        <v>195</v>
-      </c>
-      <c r="H40" s="14">
-        <v>21</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="14">
-        <v>319</v>
-      </c>
-      <c r="H41" s="14">
-        <v>34</v>
-      </c>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="17">
-        <v>272</v>
-      </c>
-      <c r="H42" s="17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="14">
-        <v>142</v>
-      </c>
-      <c r="H43" s="14">
-        <v>27</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="14">
-        <v>1116</v>
-      </c>
-      <c r="H44" s="14">
-        <v>34</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="14">
-        <v>296</v>
-      </c>
-      <c r="H45" s="14">
-        <v>29</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="17">
-        <v>744</v>
-      </c>
-      <c r="H46" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="14">
-        <v>491</v>
-      </c>
-      <c r="H47" s="14">
-        <v>70</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="17">
-        <v>5</v>
-      </c>
-      <c r="H48" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="17">
-        <v>1800</v>
-      </c>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" s="14">
-        <v>160</v>
-      </c>
-      <c r="H50" s="14">
-        <v>30</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="17">
-        <v>459</v>
-      </c>
-      <c r="H51" s="17">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="17">
-        <v>300</v>
-      </c>
-      <c r="H52" s="17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="17">
-        <v>500</v>
-      </c>
-      <c r="H53" s="17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="14">
-        <v>340</v>
-      </c>
-      <c r="H54" s="14">
-        <v>48</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="14">
-        <v>427</v>
-      </c>
-      <c r="H55" s="14">
-        <v>44</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" s="14">
-        <v>48</v>
-      </c>
-      <c r="H56" s="14">
-        <v>2</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" s="14">
-        <v>370</v>
-      </c>
-      <c r="H57" s="14">
-        <v>36</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="14">
-        <v>199</v>
-      </c>
-      <c r="H58" s="14">
-        <v>27</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="14">
-        <v>602</v>
-      </c>
-      <c r="H59" s="14">
-        <v>56</v>
-      </c>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" s="14">
-        <v>602</v>
-      </c>
-      <c r="H60" s="14">
-        <v>56</v>
-      </c>
-      <c r="J60" s="13"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E61" s="14">
-        <v>199</v>
-      </c>
-      <c r="H61" s="14">
-        <v>20</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="14">
-        <v>443</v>
-      </c>
-      <c r="H62" s="14">
-        <v>36</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="17">
-        <v>289</v>
-      </c>
-      <c r="H63" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="17">
-        <v>289</v>
-      </c>
-      <c r="H64" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E65" s="14">
-        <v>440</v>
-      </c>
-      <c r="H65" s="14">
-        <v>43</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E66" s="14">
-        <v>560</v>
-      </c>
-      <c r="H66" s="17">
-        <v>56</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14">
-      <c r="B67" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E67" s="14">
-        <v>152</v>
-      </c>
-      <c r="H67" s="17">
-        <v>30</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14">
-      <c r="B68" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E68" s="14">
-        <v>174</v>
-      </c>
-      <c r="H68" s="14">
-        <v>51</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" s="14">
-        <v>360</v>
-      </c>
-      <c r="H69" s="14">
-        <v>35</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E70" s="14">
-        <v>138</v>
-      </c>
-      <c r="H70" s="17">
-        <v>22</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="17">
-        <v>130</v>
-      </c>
-      <c r="H71" s="17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="14">
-        <v>323</v>
-      </c>
-      <c r="H72" s="14">
-        <v>44</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="17">
-        <v>252</v>
-      </c>
-      <c r="H73" s="14">
-        <v>40</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="17">
-        <v>238</v>
-      </c>
-      <c r="H74" s="17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" s="17">
-        <v>8</v>
-      </c>
-      <c r="H75" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="B76" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E76" s="17">
-        <v>269</v>
-      </c>
-      <c r="H76" s="17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="B77" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E77" s="17">
-        <v>120</v>
-      </c>
-      <c r="H77" s="14">
-        <v>30</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14">
-      <c r="B78" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E78" s="17">
-        <v>323</v>
-      </c>
-      <c r="H78" s="14">
-        <v>36</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="B79" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="17">
-        <v>489</v>
-      </c>
-      <c r="H79" s="17">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14">
-      <c r="B80" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J80" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="N80" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14">
-      <c r="B81" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="N81" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14">
-      <c r="B82" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="N82" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14">
-      <c r="B83" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E83" s="22">
-        <v>358</v>
-      </c>
-      <c r="G83" s="19">
-        <v>2016</v>
-      </c>
-      <c r="H83" s="22">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14">
-      <c r="B84" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="22">
-        <v>800</v>
-      </c>
-      <c r="G84" s="19">
-        <v>2015</v>
-      </c>
-      <c r="H84" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14">
-      <c r="B85" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" s="22">
-        <v>374</v>
-      </c>
-      <c r="G85" s="19">
-        <v>2014</v>
-      </c>
-      <c r="H85" s="22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14">
-      <c r="B86" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E86" s="22">
-        <v>390</v>
-      </c>
-      <c r="G86" s="19">
-        <v>2014</v>
-      </c>
-      <c r="H86" s="22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14">
-      <c r="B87" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" s="22">
-        <v>192</v>
-      </c>
-      <c r="H87" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14">
-      <c r="B88" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14">
-      <c r="B89" s="22" t="s">
+      <c r="F95" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" s="11">
+        <v>2008</v>
+      </c>
+      <c r="I95" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C89" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="J89" s="23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14">
-      <c r="B90" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E90" s="12">
-        <v>58</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G90" s="12">
-        <v>2008</v>
-      </c>
-      <c r="H90" s="12">
-        <v>63</v>
-      </c>
-      <c r="J90" s="12" t="s">
-        <v>254</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD82 A88:XFD1048576 J83:XFD87 A83:H87">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="MOD(ROW(),2)=0"/>
